--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>7204.809572702225</v>
+        <v>7477.165730465968</v>
       </c>
       <c r="R2">
-        <v>64843.28615432002</v>
+        <v>67294.49157419371</v>
       </c>
       <c r="S2">
-        <v>0.1058554107388459</v>
+        <v>0.1340190008068444</v>
       </c>
       <c r="T2">
-        <v>0.1058554107388459</v>
+        <v>0.1340190008068444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>8959.828671143465</v>
+        <v>7799.873864244</v>
       </c>
       <c r="R3">
-        <v>80638.45804029118</v>
+        <v>70198.864778196</v>
       </c>
       <c r="S3">
-        <v>0.1316407234033053</v>
+        <v>0.1398031472602196</v>
       </c>
       <c r="T3">
-        <v>0.1316407234033053</v>
+        <v>0.1398031472602196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>6713.283512564029</v>
+        <v>3655.217938454939</v>
       </c>
       <c r="R4">
-        <v>60419.55161307626</v>
+        <v>32896.96144609446</v>
       </c>
       <c r="S4">
-        <v>0.09863374964430284</v>
+        <v>0.06551528660746384</v>
       </c>
       <c r="T4">
-        <v>0.09863374964430285</v>
+        <v>0.06551528660746384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H5">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>1087.117714694816</v>
+        <v>947.3819261039098</v>
       </c>
       <c r="R5">
-        <v>9784.059432253343</v>
+        <v>8526.437334935188</v>
       </c>
       <c r="S5">
-        <v>0.01597228782374807</v>
+        <v>0.01698065599931503</v>
       </c>
       <c r="T5">
-        <v>0.01597228782374807</v>
+        <v>0.01698065599931503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H6">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>5774.608582296549</v>
+        <v>2701.74401444871</v>
       </c>
       <c r="R6">
-        <v>51971.47724066894</v>
+        <v>24315.69613003839</v>
       </c>
       <c r="S6">
-        <v>0.08484243159612097</v>
+        <v>0.04842543903727594</v>
       </c>
       <c r="T6">
-        <v>0.08484243159612098</v>
+        <v>0.04842543903727595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>9044.622320273191</v>
+        <v>10782.44030486416</v>
       </c>
       <c r="R7">
-        <v>81401.60088245872</v>
+        <v>97041.96274377746</v>
       </c>
       <c r="S7">
-        <v>0.1328865393358569</v>
+        <v>0.1932619829502278</v>
       </c>
       <c r="T7">
-        <v>0.1328865393358569</v>
+        <v>0.1932619829502278</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
         <v>11247.801287058</v>
@@ -948,10 +948,10 @@
         <v>101230.211583522</v>
       </c>
       <c r="S8">
-        <v>0.1652563628692666</v>
+        <v>0.2016030062866496</v>
       </c>
       <c r="T8">
-        <v>0.1652563628692666</v>
+        <v>0.2016030062866496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>8427.580671960135</v>
+        <v>5271.003832651829</v>
       </c>
       <c r="R9">
-        <v>75848.22604764122</v>
+        <v>47439.03449386646</v>
       </c>
       <c r="S9">
-        <v>0.1238207623064919</v>
+        <v>0.09447626177693702</v>
       </c>
       <c r="T9">
-        <v>0.1238207623064919</v>
+        <v>0.09447626177693702</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>1364.72297399046</v>
+        <v>1366.171278309495</v>
       </c>
       <c r="R10">
-        <v>12282.50676591414</v>
+        <v>12295.54150478545</v>
       </c>
       <c r="S10">
-        <v>0.0200509547821841</v>
+        <v>0.02448694013883221</v>
       </c>
       <c r="T10">
-        <v>0.02005095478218411</v>
+        <v>0.02448694013883221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>7249.20667885071</v>
+        <v>3896.047594093095</v>
       </c>
       <c r="R11">
-        <v>65242.86010965639</v>
+        <v>35064.42834683786</v>
       </c>
       <c r="S11">
-        <v>0.1065077074941648</v>
+        <v>0.06983186202878602</v>
       </c>
       <c r="T11">
-        <v>0.1065077074941648</v>
+        <v>0.06983186202878602</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H12">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>2.033167286962</v>
+        <v>28.10864278530078</v>
       </c>
       <c r="R12">
-        <v>18.298505582658</v>
+        <v>252.977785067707</v>
       </c>
       <c r="S12">
-        <v>2.987195651604527E-05</v>
+        <v>0.0005038128558222775</v>
       </c>
       <c r="T12">
-        <v>2.987195651604527E-05</v>
+        <v>0.0005038128558222775</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H13">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>2.528426375066666</v>
+        <v>29.32178797737778</v>
       </c>
       <c r="R13">
-        <v>22.7558373756</v>
+        <v>263.8960917964</v>
       </c>
       <c r="S13">
-        <v>3.714846447429835E-05</v>
+        <v>0.000525556991546504</v>
       </c>
       <c r="T13">
-        <v>3.714846447429836E-05</v>
+        <v>0.0005255569915465041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H14">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>1.894460677706334</v>
+        <v>13.74093059296822</v>
       </c>
       <c r="R14">
-        <v>17.050146099357</v>
+        <v>123.668375336714</v>
       </c>
       <c r="S14">
-        <v>2.783403379972783E-05</v>
+        <v>0.0002462892832136058</v>
       </c>
       <c r="T14">
-        <v>2.783403379972783E-05</v>
+        <v>0.0002462892832136058</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H15">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>0.306780096308</v>
+        <v>3.561459127969</v>
       </c>
       <c r="R15">
-        <v>2.761020866772</v>
+        <v>32.053132151721</v>
       </c>
       <c r="S15">
-        <v>4.507313173720187E-06</v>
+        <v>6.383477522773534E-05</v>
       </c>
       <c r="T15">
-        <v>4.507313173720187E-06</v>
+        <v>6.383477522773534E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H16">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>1.629570517591333</v>
+        <v>10.156570034289</v>
       </c>
       <c r="R16">
-        <v>14.666134658322</v>
+        <v>91.40913030860101</v>
       </c>
       <c r="S16">
-        <v>2.39421812230975E-05</v>
+        <v>0.0001820440280030174</v>
       </c>
       <c r="T16">
-        <v>2.39421812230975E-05</v>
+        <v>0.0001820440280030174</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H17">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>232.102289089672</v>
+        <v>174.4364211868226</v>
       </c>
       <c r="R17">
-        <v>2088.920601807048</v>
+        <v>1569.927790681404</v>
       </c>
       <c r="S17">
-        <v>0.003410122487914509</v>
+        <v>0.003126558339682936</v>
       </c>
       <c r="T17">
-        <v>0.00341012248791451</v>
+        <v>0.003126558339682936</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H18">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>288.6400706970666</v>
+        <v>181.9649492378667</v>
       </c>
       <c r="R18">
-        <v>2597.760636273599</v>
+        <v>1637.6845431408</v>
       </c>
       <c r="S18">
-        <v>0.004240794004478862</v>
+        <v>0.003261497946924241</v>
       </c>
       <c r="T18">
-        <v>0.004240794004478863</v>
+        <v>0.003261497946924241</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H19">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>216.2678214949213</v>
+        <v>85.27337213404532</v>
       </c>
       <c r="R19">
-        <v>1946.410393454292</v>
+        <v>767.460349206408</v>
       </c>
       <c r="S19">
-        <v>0.003177477328572065</v>
+        <v>0.001528420332087887</v>
       </c>
       <c r="T19">
-        <v>0.003177477328572066</v>
+        <v>0.001528420332087887</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H20">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>35.02139890644799</v>
+        <v>22.101678449268</v>
       </c>
       <c r="R20">
-        <v>315.1925901580319</v>
+        <v>198.915106043412</v>
       </c>
       <c r="S20">
-        <v>0.0005145458083912415</v>
+        <v>0.0003961454070565948</v>
       </c>
       <c r="T20">
-        <v>0.0005145458083912417</v>
+        <v>0.0003961454070565948</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H21">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>186.0284934699813</v>
+        <v>63.02957214430799</v>
       </c>
       <c r="R21">
-        <v>1674.256441229832</v>
+        <v>567.266149298772</v>
       </c>
       <c r="S21">
-        <v>0.002733191264347032</v>
+        <v>0.001129727571189819</v>
       </c>
       <c r="T21">
-        <v>0.002733191264347032</v>
+        <v>0.001129727571189819</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H22">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J22">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>5.501333114654666</v>
+        <v>11.68524788459933</v>
       </c>
       <c r="R22">
-        <v>49.51199803189201</v>
+        <v>105.167230961394</v>
       </c>
       <c r="S22">
-        <v>8.082737934801108E-05</v>
+        <v>0.000209443698605394</v>
       </c>
       <c r="T22">
-        <v>8.08273793480111E-05</v>
+        <v>0.000209443698605394</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H23">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J23">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>6.841402492711109</v>
+        <v>12.18957327653334</v>
       </c>
       <c r="R23">
-        <v>61.57262243439999</v>
+        <v>109.7061594888</v>
       </c>
       <c r="S23">
-        <v>0.0001005161154625884</v>
+        <v>0.0002184831110706173</v>
       </c>
       <c r="T23">
-        <v>0.0001005161154625884</v>
+        <v>0.0002184831110706174</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H24">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J24">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>5.126021517024222</v>
+        <v>5.712341978598667</v>
       </c>
       <c r="R24">
-        <v>46.13419365321801</v>
+        <v>51.411077807388</v>
       </c>
       <c r="S24">
-        <v>7.531317901817188E-05</v>
+        <v>0.0001023867053152875</v>
       </c>
       <c r="T24">
-        <v>7.531317901817191E-05</v>
+        <v>0.0001023867053152875</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H25">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J25">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>0.8300839353253332</v>
+        <v>1.480560020598</v>
       </c>
       <c r="R25">
-        <v>7.470755417927999</v>
+        <v>13.325040185382</v>
       </c>
       <c r="S25">
-        <v>1.219586375391526E-05</v>
+        <v>2.653721767682945E-05</v>
       </c>
       <c r="T25">
-        <v>1.219586375391527E-05</v>
+        <v>2.653721767682945E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H26">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J26">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>4.409283145847555</v>
+        <v>4.222261438038</v>
       </c>
       <c r="R26">
-        <v>39.683548312628</v>
+        <v>38.000352942342</v>
       </c>
       <c r="S26">
-        <v>6.478262523911599E-05</v>
+        <v>7.567884402581761E-05</v>
       </c>
       <c r="T26">
-        <v>6.478262523911602E-05</v>
+        <v>7.567884402581762E-05</v>
       </c>
     </row>
   </sheetData>
